--- a/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F57F04F-9EDA-4A90-AC1F-A0F59A7CBBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D03EA76-27D5-4C57-890B-3C73C470FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5C36CA-72C0-43FB-90F2-EB7EF90933E7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ACE9CA3-421B-4462-94AE-70E6B4AF36B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,730 +104,718 @@
     <t>22,81%</t>
   </si>
   <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640F705-BC78-46E9-B29F-7A234CF3D490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D9DE2-7ED5-4F5B-804F-4056032BD22D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1782,7 +1770,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1791,13 +1779,13 @@
         <v>5729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1806,13 +1794,13 @@
         <v>13221</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1856,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1880,13 +1868,13 @@
         <v>318316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
@@ -1895,13 +1883,13 @@
         <v>317466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>714</v>
@@ -1910,13 +1898,13 @@
         <v>635783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1919,13 @@
         <v>172406</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -1946,13 +1934,13 @@
         <v>201448</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>502</v>
@@ -1961,13 +1949,13 @@
         <v>373853</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1970,13 @@
         <v>48854</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1997,7 +1985,7 @@
         <v>56963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>108</v>
@@ -2039,7 +2027,7 @@
         <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2048,13 +2036,13 @@
         <v>6905</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2063,13 +2051,13 @@
         <v>24581</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2113,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2137,13 +2125,13 @@
         <v>369498</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
@@ -2152,13 +2140,13 @@
         <v>285781</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
@@ -2167,13 +2155,13 @@
         <v>655279</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2176,13 @@
         <v>246433</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
@@ -2203,13 +2191,13 @@
         <v>342568</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -2218,13 +2206,13 @@
         <v>589001</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2227,13 @@
         <v>93956</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -2254,13 +2242,13 @@
         <v>102786</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
@@ -2269,13 +2257,13 @@
         <v>196742</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2278,13 @@
         <v>11059</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2305,13 +2293,13 @@
         <v>14975</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2320,13 +2308,13 @@
         <v>26034</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2370,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2394,13 +2382,13 @@
         <v>234994</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>327</v>
@@ -2409,13 +2397,13 @@
         <v>200512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>573</v>
@@ -2424,13 +2412,13 @@
         <v>435507</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2433,13 @@
         <v>243923</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>428</v>
@@ -2460,13 +2448,13 @@
         <v>250614</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>707</v>
@@ -2475,13 +2463,13 @@
         <v>494536</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2484,13 @@
         <v>101970</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -2511,13 +2499,13 @@
         <v>122162</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -2526,13 +2514,13 @@
         <v>224132</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2535,13 @@
         <v>14903</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -2562,13 +2550,13 @@
         <v>21524</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>52</v>
@@ -2577,13 +2565,13 @@
         <v>36428</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2627,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2651,13 +2639,13 @@
         <v>252354</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>465</v>
@@ -2666,13 +2654,13 @@
         <v>366350</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>825</v>
@@ -2681,13 +2669,13 @@
         <v>618704</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2690,13 @@
         <v>295904</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>699</v>
@@ -2717,13 +2705,13 @@
         <v>380077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>1134</v>
@@ -2732,13 +2720,13 @@
         <v>675981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2741,13 @@
         <v>120989</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>460</v>
@@ -2768,13 +2756,13 @@
         <v>237006</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>647</v>
@@ -2783,13 +2771,13 @@
         <v>357995</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2792,13 @@
         <v>21098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>71</v>
@@ -2819,13 +2807,13 @@
         <v>36012</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
@@ -2834,13 +2822,13 @@
         <v>57111</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,28 +2896,28 @@
         <v>1690724</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>2007</v>
       </c>
       <c r="I34" s="7">
-        <v>1664985</v>
+        <v>1664984</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>3478</v>
@@ -2938,13 +2926,13 @@
         <v>3355708</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2947,13 @@
         <v>1191545</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>2217</v>
@@ -2974,13 +2962,13 @@
         <v>1455801</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>3526</v>
@@ -2989,13 +2977,13 @@
         <v>2647346</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,28 +2998,28 @@
         <v>409683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>979</v>
       </c>
       <c r="I36" s="7">
-        <v>590755</v>
+        <v>590754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>1472</v>
@@ -3040,13 +3028,13 @@
         <v>1000437</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>78456</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -3076,13 +3064,13 @@
         <v>85146</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>229</v>
@@ -3091,13 +3079,13 @@
         <v>163601</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3112,7 @@
         <v>5344</v>
       </c>
       <c r="I38" s="7">
-        <v>3796686</v>
+        <v>3796685</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>48</v>
@@ -3153,7 +3141,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D03EA76-27D5-4C57-890B-3C73C470FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCB1AB6-54EB-4523-B36E-73C1D2987A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ACE9CA3-421B-4462-94AE-70E6B4AF36B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5687E9ED-9A13-428B-AAA9-0A9048EFFDAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D9DE2-7ED5-4F5B-804F-4056032BD22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9914C69F-B594-4CBB-BBF2-7A0F23FF3BBA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCB1AB6-54EB-4523-B36E-73C1D2987A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C317E6D0-E0D3-4A55-AAE9-E4B60FA71128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5687E9ED-9A13-428B-AAA9-0A9048EFFDAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAC99216-B56B-4644-B41B-22FE7D36404C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -167,7 +167,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,88%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,7 +179,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,34 +191,34 @@
     <t>56,82%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>28,8%</t>
+    <t>28,84%</t>
   </si>
   <si>
     <t>40,32%</t>
@@ -227,595 +227,607 @@
     <t>38,74%</t>
   </si>
   <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9914C69F-B594-4CBB-BBF2-7A0F23FF3BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6436E4AA-8EFF-4F86-A4EF-F5A0FE0A283D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1770,7 +1782,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1779,13 +1791,13 @@
         <v>5729</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1794,13 +1806,13 @@
         <v>13221</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1868,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1868,13 +1880,13 @@
         <v>318316</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
@@ -1883,13 +1895,13 @@
         <v>317466</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>714</v>
@@ -1898,13 +1910,13 @@
         <v>635783</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1931,13 @@
         <v>172406</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -1934,13 +1946,13 @@
         <v>201448</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>502</v>
@@ -1949,13 +1961,13 @@
         <v>373853</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1982,13 @@
         <v>48854</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1985,7 +1997,7 @@
         <v>56963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>108</v>
@@ -2027,7 +2039,7 @@
         <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2036,13 +2048,13 @@
         <v>6905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2051,13 +2063,13 @@
         <v>24581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2125,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2125,13 +2137,13 @@
         <v>369498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
@@ -2140,13 +2152,13 @@
         <v>285781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
@@ -2155,13 +2167,13 @@
         <v>655279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2188,13 @@
         <v>246433</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
@@ -2191,13 +2203,13 @@
         <v>342568</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -2206,13 +2218,13 @@
         <v>589001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2239,13 @@
         <v>93956</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -2242,13 +2254,13 @@
         <v>102786</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
@@ -2257,13 +2269,13 @@
         <v>196742</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2290,13 @@
         <v>11059</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2293,13 +2305,13 @@
         <v>14975</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2308,13 +2320,13 @@
         <v>26034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2382,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2394,13 @@
         <v>234994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>327</v>
@@ -2397,13 +2409,13 @@
         <v>200512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>573</v>
@@ -2412,13 +2424,13 @@
         <v>435507</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2445,13 @@
         <v>243923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>428</v>
@@ -2448,13 +2460,13 @@
         <v>250614</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>707</v>
@@ -2463,13 +2475,13 @@
         <v>494536</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2496,13 @@
         <v>101970</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -2499,13 +2511,13 @@
         <v>122162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -2514,13 +2526,13 @@
         <v>224132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2547,13 @@
         <v>14903</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -2550,13 +2562,13 @@
         <v>21524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>52</v>
@@ -2565,13 +2577,13 @@
         <v>36428</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2639,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2639,13 +2651,13 @@
         <v>252354</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>465</v>
@@ -2654,13 +2666,13 @@
         <v>366350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>825</v>
@@ -2669,13 +2681,13 @@
         <v>618704</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2702,13 @@
         <v>295904</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>699</v>
@@ -2705,13 +2717,13 @@
         <v>380077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>1134</v>
@@ -2720,13 +2732,13 @@
         <v>675981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2753,13 @@
         <v>120989</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>460</v>
@@ -2756,13 +2768,13 @@
         <v>237006</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>647</v>
@@ -2771,13 +2783,13 @@
         <v>357995</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2804,13 @@
         <v>21098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>71</v>
@@ -2807,13 +2819,13 @@
         <v>36012</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>107</v>
@@ -2822,13 +2834,13 @@
         <v>57111</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,28 +2908,28 @@
         <v>1690724</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>2007</v>
       </c>
       <c r="I34" s="7">
-        <v>1664984</v>
+        <v>1664985</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>3478</v>
@@ -2926,13 +2938,13 @@
         <v>3355708</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2959,13 @@
         <v>1191545</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>2217</v>
@@ -2962,13 +2974,13 @@
         <v>1455801</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>3526</v>
@@ -2977,13 +2989,13 @@
         <v>2647346</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,28 +3010,28 @@
         <v>409683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>979</v>
       </c>
       <c r="I36" s="7">
-        <v>590754</v>
+        <v>590755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>1472</v>
@@ -3028,13 +3040,13 @@
         <v>1000437</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3061,13 @@
         <v>78456</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -3064,13 +3076,13 @@
         <v>85146</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>229</v>
@@ -3079,13 +3091,13 @@
         <v>163601</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3124,7 @@
         <v>5344</v>
       </c>
       <c r="I38" s="7">
-        <v>3796685</v>
+        <v>3796686</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>48</v>
@@ -3141,7 +3153,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C317E6D0-E0D3-4A55-AAE9-E4B60FA71128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFCF56DD-B004-483C-9A61-11F017A10594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAC99216-B56B-4644-B41B-22FE7D36404C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4E528D1C-BBB4-4D51-B116-F39B50500EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="299">
   <si>
     <t>Población según se ha sentido feliz en 2023 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -65,769 +65,871 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,8 +1344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6436E4AA-8EFF-4F86-A4EF-F5A0FE0A283D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC82A4-9CBC-4DA1-B9ED-A4833A01E924}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1363,7 +1465,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="7">
-        <v>272137</v>
+        <v>287989</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1378,7 +1480,7 @@
         <v>131</v>
       </c>
       <c r="I4" s="7">
-        <v>228881</v>
+        <v>198438</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1393,7 +1495,7 @@
         <v>254</v>
       </c>
       <c r="N4" s="7">
-        <v>501017</v>
+        <v>486428</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1414,7 +1516,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>86148</v>
+        <v>92070</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1429,7 +1531,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>87969</v>
+        <v>81229</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1444,7 +1546,7 @@
         <v>94</v>
       </c>
       <c r="N5" s="7">
-        <v>174117</v>
+        <v>173299</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1465,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>13167</v>
+        <v>13619</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1480,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>38107</v>
+        <v>33533</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1495,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>51274</v>
+        <v>47152</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1516,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>6227</v>
+        <v>6309</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1546,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>6227</v>
+        <v>6309</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1567,7 +1669,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1582,7 +1684,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1597,7 +1699,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1620,7 +1722,7 @@
         <v>161</v>
       </c>
       <c r="D9" s="7">
-        <v>243424</v>
+        <v>234457</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1635,7 +1737,7 @@
         <v>240</v>
       </c>
       <c r="I9" s="7">
-        <v>265993</v>
+        <v>239430</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1650,7 +1752,7 @@
         <v>401</v>
       </c>
       <c r="N9" s="7">
-        <v>509417</v>
+        <v>473887</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1671,7 +1773,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>146732</v>
+        <v>150455</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1686,7 +1788,7 @@
         <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>193125</v>
+        <v>236842</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1701,7 +1803,7 @@
         <v>287</v>
       </c>
       <c r="N10" s="7">
-        <v>339858</v>
+        <v>387298</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1722,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>30747</v>
+        <v>31667</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1737,7 +1839,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>33730</v>
+        <v>30070</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1752,7 +1854,7 @@
         <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>64477</v>
+        <v>61736</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1773,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>7492</v>
+        <v>6968</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1782,37 +1884,37 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>5729</v>
+        <v>5162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>13221</v>
+        <v>12130</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,7 +1926,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1839,7 +1941,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1854,7 +1956,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1868,7 +1970,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1877,46 +1979,46 @@
         <v>289</v>
       </c>
       <c r="D14" s="7">
-        <v>318316</v>
+        <v>304595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
       </c>
       <c r="I14" s="7">
-        <v>317466</v>
+        <v>292732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>714</v>
       </c>
       <c r="N14" s="7">
-        <v>635783</v>
+        <v>597327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,46 +2030,46 @@
         <v>185</v>
       </c>
       <c r="D15" s="7">
-        <v>172406</v>
+        <v>168728</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
       </c>
       <c r="I15" s="7">
-        <v>201448</v>
+        <v>190710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>502</v>
       </c>
       <c r="N15" s="7">
-        <v>373853</v>
+        <v>359438</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,46 +2081,46 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>48854</v>
+        <v>46320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>56963</v>
+        <v>51985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
       </c>
       <c r="N16" s="7">
-        <v>105817</v>
+        <v>98305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,46 +2132,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>17676</v>
+        <v>16695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6905</v>
+        <v>6384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>24581</v>
+        <v>23079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2183,7 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -2096,7 +2198,7 @@
         <v>845</v>
       </c>
       <c r="I18" s="7">
-        <v>582782</v>
+        <v>541810</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -2111,7 +2213,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1140034</v>
+        <v>1078149</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2125,7 +2227,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,46 +2236,46 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>369498</v>
+        <v>546956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>419</v>
       </c>
       <c r="I19" s="7">
-        <v>285781</v>
+        <v>262149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
       </c>
       <c r="N19" s="7">
-        <v>655279</v>
+        <v>809104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,46 +2287,46 @@
         <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>246433</v>
+        <v>238577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>543</v>
       </c>
       <c r="I20" s="7">
-        <v>342568</v>
+        <v>343563</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
       </c>
       <c r="N20" s="7">
-        <v>589001</v>
+        <v>582140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,46 +2338,46 @@
         <v>101</v>
       </c>
       <c r="D21" s="7">
-        <v>93956</v>
+        <v>88904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
       </c>
       <c r="I21" s="7">
-        <v>102786</v>
+        <v>92564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
       </c>
       <c r="N21" s="7">
-        <v>196742</v>
+        <v>181467</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2389,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>11059</v>
+        <v>10574</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>152</v>
@@ -2302,7 +2404,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>14975</v>
+        <v>13515</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2317,7 +2419,7 @@
         <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>26034</v>
+        <v>24089</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -2338,7 +2440,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>720945</v>
+        <v>885010</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -2353,7 +2455,7 @@
         <v>1138</v>
       </c>
       <c r="I23" s="7">
-        <v>746111</v>
+        <v>711791</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -2368,7 +2470,7 @@
         <v>1801</v>
       </c>
       <c r="N23" s="7">
-        <v>1467056</v>
+        <v>1596800</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2391,7 +2493,7 @@
         <v>246</v>
       </c>
       <c r="D24" s="7">
-        <v>234994</v>
+        <v>219113</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>160</v>
@@ -2406,7 +2508,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="7">
-        <v>200512</v>
+        <v>184114</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>163</v>
@@ -2421,16 +2523,16 @@
         <v>573</v>
       </c>
       <c r="N24" s="7">
-        <v>435507</v>
+        <v>403227</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,46 +2544,46 @@
         <v>279</v>
       </c>
       <c r="D25" s="7">
-        <v>243923</v>
+        <v>231495</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>428</v>
       </c>
       <c r="I25" s="7">
-        <v>250614</v>
+        <v>230817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>707</v>
       </c>
       <c r="N25" s="7">
-        <v>494536</v>
+        <v>462312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,46 +2595,46 @@
         <v>117</v>
       </c>
       <c r="D26" s="7">
-        <v>101970</v>
+        <v>92956</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
       </c>
       <c r="I26" s="7">
-        <v>122162</v>
+        <v>111520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
       </c>
       <c r="N26" s="7">
-        <v>224132</v>
+        <v>204475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,10 +2646,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="7">
-        <v>14903</v>
+        <v>13642</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>187</v>
@@ -2559,7 +2661,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="7">
-        <v>21524</v>
+        <v>19440</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -2574,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="N27" s="7">
-        <v>36428</v>
+        <v>33082</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
@@ -2595,7 +2697,7 @@
         <v>660</v>
       </c>
       <c r="D28" s="7">
-        <v>595790</v>
+        <v>557206</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -2610,7 +2712,7 @@
         <v>999</v>
       </c>
       <c r="I28" s="7">
-        <v>594813</v>
+        <v>545891</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -2625,7 +2727,7 @@
         <v>1659</v>
       </c>
       <c r="N28" s="7">
-        <v>1190603</v>
+        <v>1103096</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2645,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="D29" s="7">
-        <v>252354</v>
+        <v>148556</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>196</v>
@@ -2660,10 +2762,10 @@
         <v>198</v>
       </c>
       <c r="H29" s="7">
-        <v>465</v>
+        <v>276</v>
       </c>
       <c r="I29" s="7">
-        <v>366350</v>
+        <v>341926</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>199</v>
@@ -2675,10 +2777,10 @@
         <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>825</v>
+        <v>500</v>
       </c>
       <c r="N29" s="7">
-        <v>618704</v>
+        <v>490482</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>202</v>
@@ -2696,10 +2798,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>435</v>
+        <v>243</v>
       </c>
       <c r="D30" s="7">
-        <v>295904</v>
+        <v>156866</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>205</v>
@@ -2711,10 +2813,10 @@
         <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>699</v>
+        <v>341</v>
       </c>
       <c r="I30" s="7">
-        <v>380077</v>
+        <v>167364</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>208</v>
@@ -2726,10 +2828,10 @@
         <v>210</v>
       </c>
       <c r="M30" s="7">
-        <v>1134</v>
+        <v>584</v>
       </c>
       <c r="N30" s="7">
-        <v>675981</v>
+        <v>324230</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>211</v>
@@ -2747,10 +2849,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="D31" s="7">
-        <v>120989</v>
+        <v>52015</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>214</v>
@@ -2762,10 +2864,10 @@
         <v>216</v>
       </c>
       <c r="H31" s="7">
-        <v>460</v>
+        <v>182</v>
       </c>
       <c r="I31" s="7">
-        <v>237006</v>
+        <v>85406</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>217</v>
@@ -2777,10 +2879,10 @@
         <v>219</v>
       </c>
       <c r="M31" s="7">
-        <v>647</v>
+        <v>268</v>
       </c>
       <c r="N31" s="7">
-        <v>357995</v>
+        <v>137421</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>220</v>
@@ -2798,49 +2900,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D32" s="7">
-        <v>21098</v>
+        <v>8368</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I32" s="7">
-        <v>36012</v>
+        <v>11637</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" s="7">
         <v>38</v>
       </c>
-      <c r="M32" s="7">
-        <v>107</v>
-      </c>
       <c r="N32" s="7">
-        <v>57111</v>
+        <v>20005</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1018</v>
+        <v>567</v>
       </c>
       <c r="D33" s="7">
-        <v>690345</v>
+        <v>365806</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2864,10 +2966,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>1695</v>
+        <v>823</v>
       </c>
       <c r="I33" s="7">
-        <v>1019445</v>
+        <v>606332</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -2879,10 +2981,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>2713</v>
+        <v>1390</v>
       </c>
       <c r="N33" s="7">
-        <v>1709790</v>
+        <v>972138</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2896,55 +2998,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1471</v>
+        <v>136</v>
       </c>
       <c r="D34" s="7">
-        <v>1690724</v>
+        <v>87145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="H34" s="7">
-        <v>2007</v>
+        <v>189</v>
       </c>
       <c r="I34" s="7">
-        <v>1664985</v>
+        <v>94898</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
-        <v>3478</v>
+        <v>325</v>
       </c>
       <c r="N34" s="7">
-        <v>3355708</v>
+        <v>182043</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,49 +3055,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1309</v>
+        <v>192</v>
       </c>
       <c r="D35" s="7">
-        <v>1191545</v>
+        <v>120567</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
-        <v>2217</v>
+        <v>358</v>
       </c>
       <c r="I35" s="7">
-        <v>1455801</v>
+        <v>178651</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
-        <v>3526</v>
+        <v>550</v>
       </c>
       <c r="N35" s="7">
-        <v>2647346</v>
+        <v>299218</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,49 +3106,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>493</v>
+        <v>101</v>
       </c>
       <c r="D36" s="7">
-        <v>409683</v>
+        <v>59346</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
-        <v>979</v>
+        <v>278</v>
       </c>
       <c r="I36" s="7">
-        <v>590755</v>
+        <v>126938</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
-        <v>1472</v>
+        <v>379</v>
       </c>
       <c r="N36" s="7">
-        <v>1000437</v>
+        <v>186284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,49 +3157,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D37" s="7">
-        <v>78456</v>
+        <v>11153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="I37" s="7">
-        <v>85146</v>
+        <v>20921</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="N37" s="7">
-        <v>163601</v>
+        <v>32074</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,63 +3208,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>451</v>
+      </c>
+      <c r="D38" s="7">
+        <v>278211</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>872</v>
+      </c>
+      <c r="I38" s="7">
+        <v>421408</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1323</v>
+      </c>
+      <c r="N38" s="7">
+        <v>699619</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1471</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1828811</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2007</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1613686</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3478</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3442497</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1309</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1158759</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2217</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1429176</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3526</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2587934</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>493</v>
+      </c>
+      <c r="D41" s="7">
+        <v>384827</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="7">
+        <v>979</v>
+      </c>
+      <c r="I41" s="7">
+        <v>532014</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1472</v>
+      </c>
+      <c r="N41" s="7">
+        <v>916841</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>88</v>
+      </c>
+      <c r="D42" s="7">
+        <v>73709</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="7">
+        <v>141</v>
+      </c>
+      <c r="I42" s="7">
+        <v>77060</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" s="7">
+        <v>229</v>
+      </c>
+      <c r="N42" s="7">
+        <v>150768</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3361</v>
       </c>
-      <c r="D38" s="7">
-        <v>3370407</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3446105</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>5344</v>
       </c>
-      <c r="I38" s="7">
-        <v>3796686</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3651936</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>8705</v>
       </c>
-      <c r="N38" s="7">
-        <v>7167092</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>264</v>
+      <c r="N43" s="7">
+        <v>7098041</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
